--- a/DataFolder/ExcelFiles/Product groups/Встраиваемая техника/Пароварки.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Встраиваемая техника/Пароварки.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Встраиваемая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -294,7 +294,7 @@
     <t>Максимальная потребляемая мощность (кВт)</t>
   </si>
   <si>
-    <t>Функция СВЧ</t>
+    <t>Режим СВЧ</t>
   </si>
 </sst>
 </file>
